--- a/Excels/CreateTransferCheck.xlsx
+++ b/Excels/CreateTransferCheck.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>customerID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>accountType</t>
   </si>
@@ -40,25 +37,73 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>dOB</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Patten</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>10/10/1999</t>
+  </si>
+  <si>
+    <t>761 Melrose Place</t>
+  </si>
+  <si>
+    <t>Spokane</t>
+  </si>
+  <si>
+    <t>pforton2j@g.co</t>
+  </si>
+  <si>
+    <t>JEQYW0s4o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,12 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,52 +409,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>319785</v>
+      </c>
+      <c r="H2">
+        <v>5098117316</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="O2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>90216</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
